--- a/docs/assets/Benchmarks - BP vs BP+.xlsx
+++ b/docs/assets/Benchmarks - BP vs BP+.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pluto\Documents\Code\@forked\bulletproofs-plus\docs\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8160E074-33CA-4E5F-B052-D14C261D0467}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DA56977-E7EA-448B-8436-4535F412E3EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1035" yWindow="15" windowWidth="16965" windowHeight="21420" activeTab="2" xr2:uid="{52051F7D-C720-4D8E-A714-206017C25F0C}"/>
+    <workbookView xWindow="23040" yWindow="0" windowWidth="16965" windowHeight="21420" activeTab="2" xr2:uid="{52051F7D-C720-4D8E-A714-206017C25F0C}"/>
   </bookViews>
   <sheets>
     <sheet name="Creation" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="42">
   <si>
     <t>Aggregated 64-bit rangeproof creation, size 1</t>
   </si>
@@ -156,13 +156,19 @@
   <si>
     <t>Diff Med (%)</t>
   </si>
+  <si>
+    <t xml:space="preserve"> BP+ mask only  ed_0 (ms)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BP+ no mask ed_0 (ms)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="171" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -235,13 +241,13 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="171" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -1006,6 +1012,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="638565104"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -2874,6 +2881,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="638564688"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -5140,6 +5148,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="635238576"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -10375,7 +10384,7 @@
         <v>21.242000000000001</v>
       </c>
       <c r="E2" s="2">
-        <f>D2/C2</f>
+        <f t="shared" ref="E2:E7" si="0">D2/C2</f>
         <v>1.30367006259973</v>
       </c>
       <c r="G2" s="2"/>
@@ -10394,7 +10403,7 @@
         <v>41.076999999999998</v>
       </c>
       <c r="E3" s="2">
-        <f>D3/C3</f>
+        <f t="shared" si="0"/>
         <v>1.2986721466961746</v>
       </c>
       <c r="G3" s="2"/>
@@ -10413,7 +10422,7 @@
         <v>80.456000000000003</v>
       </c>
       <c r="E4" s="2">
-        <f>D4/C4</f>
+        <f t="shared" si="0"/>
         <v>1.330577008947029</v>
       </c>
       <c r="G4" s="2"/>
@@ -10432,7 +10441,7 @@
         <v>156.56</v>
       </c>
       <c r="E5" s="2">
-        <f>D5/C5</f>
+        <f t="shared" si="0"/>
         <v>1.3136432287296527</v>
       </c>
       <c r="G5" s="2"/>
@@ -10451,7 +10460,7 @@
         <v>306.02999999999997</v>
       </c>
       <c r="E6" s="2">
-        <f>D6/C6</f>
+        <f t="shared" si="0"/>
         <v>1.2741693729702721</v>
       </c>
       <c r="G6" s="2"/>
@@ -10470,7 +10479,7 @@
         <v>598.57000000000005</v>
       </c>
       <c r="E7" s="2">
-        <f>D7/C7</f>
+        <f t="shared" si="0"/>
         <v>1.2993466038595958</v>
       </c>
       <c r="G7" s="2"/>
@@ -10548,11 +10557,11 @@
         <v>42.073999999999998</v>
       </c>
       <c r="F28" s="8">
-        <f t="shared" ref="F28:G32" si="0">D28/$C28</f>
+        <f t="shared" ref="F28:G32" si="1">D28/$C28</f>
         <v>1.0090561628161745</v>
       </c>
       <c r="G28" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0242714901282957</v>
       </c>
     </row>
@@ -10573,11 +10582,11 @@
         <v>80.760000000000005</v>
       </c>
       <c r="F29" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0030824301481553</v>
       </c>
       <c r="G29" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0037784627622552</v>
       </c>
     </row>
@@ -10598,11 +10607,11 @@
         <v>157.06</v>
       </c>
       <c r="F30" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0032575370464998</v>
       </c>
       <c r="G30" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0031936637710781</v>
       </c>
     </row>
@@ -10623,11 +10632,11 @@
         <v>305.49</v>
       </c>
       <c r="F31" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0008169133745057</v>
       </c>
       <c r="G31" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.9982354671110677</v>
       </c>
     </row>
@@ -10648,11 +10657,11 @@
         <v>598.01</v>
       </c>
       <c r="F32" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.99983293516213634</v>
       </c>
       <c r="G32" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.99906443690796387</v>
       </c>
     </row>
@@ -10721,7 +10730,7 @@
         <v>2.1652</v>
       </c>
       <c r="E2" s="2">
-        <f>D2/C2</f>
+        <f t="shared" ref="E2:E7" si="0">D2/C2</f>
         <v>0.92616990332791505</v>
       </c>
       <c r="G2" s="2"/>
@@ -10740,7 +10749,7 @@
         <v>3.7073999999999998</v>
       </c>
       <c r="E3" s="2">
-        <f>D3/C3</f>
+        <f t="shared" si="0"/>
         <v>0.98643039591315451</v>
       </c>
       <c r="G3" s="2"/>
@@ -10759,7 +10768,7 @@
         <v>6.1759000000000004</v>
       </c>
       <c r="E4" s="2">
-        <f>D4/C4</f>
+        <f t="shared" si="0"/>
         <v>0.95860366932604857</v>
       </c>
       <c r="G4" s="2"/>
@@ -10778,7 +10787,7 @@
         <v>10.962999999999999</v>
       </c>
       <c r="E5" s="2">
-        <f>D5/C5</f>
+        <f t="shared" si="0"/>
         <v>0.98747973338137263</v>
       </c>
       <c r="G5" s="2"/>
@@ -10797,7 +10806,7 @@
         <v>19.521999999999998</v>
       </c>
       <c r="E6" s="2">
-        <f>D6/C6</f>
+        <f t="shared" si="0"/>
         <v>1.1109087805155635</v>
       </c>
       <c r="G6" s="2"/>
@@ -10816,7 +10825,7 @@
         <v>36.970999999999997</v>
       </c>
       <c r="E7" s="2">
-        <f>D7/C7</f>
+        <f t="shared" si="0"/>
         <v>1.0975508386522188</v>
       </c>
       <c r="G7" s="2"/>
@@ -10893,11 +10902,11 @@
         <v>3.7563</v>
       </c>
       <c r="F28" s="2">
-        <f t="shared" ref="F28:G32" si="0">D28/$C28</f>
+        <f t="shared" ref="F28:G32" si="1">D28/$C28</f>
         <v>1.0083616550682419</v>
       </c>
       <c r="G28" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.01318983654313</v>
       </c>
     </row>
@@ -10918,11 +10927,11 @@
         <v>6.2778999999999998</v>
       </c>
       <c r="F29" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0132936090286435</v>
       </c>
       <c r="G29" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0165158114606776</v>
       </c>
     </row>
@@ -10943,11 +10952,11 @@
         <v>10.968999999999999</v>
       </c>
       <c r="F30" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0082094317248931</v>
       </c>
       <c r="G30" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0005472954483261</v>
       </c>
     </row>
@@ -10968,11 +10977,11 @@
         <v>19.513000000000002</v>
       </c>
       <c r="F31" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0068128265546563</v>
       </c>
       <c r="G31" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.99953898166171518</v>
       </c>
     </row>
@@ -10993,11 +11002,11 @@
         <v>36.865000000000002</v>
       </c>
       <c r="F32" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0005409645397745</v>
       </c>
       <c r="G32" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.99713288793919574</v>
       </c>
     </row>
@@ -11023,10 +11032,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA12C07F-9893-4951-9980-FCE20D0EB9F0}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:H10"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11092,7 +11101,7 @@
         <v>2.1979000000000002</v>
       </c>
       <c r="G2" s="2">
-        <f>D2/C2</f>
+        <f t="shared" ref="G2:G7" si="0">D2/C2</f>
         <v>1</v>
       </c>
       <c r="H2" s="2">
@@ -11129,19 +11138,19 @@
         <v>2.7555999999999998</v>
       </c>
       <c r="G3" s="2">
-        <f>D3/C3</f>
+        <f t="shared" si="0"/>
         <v>0.62939495875766094</v>
       </c>
       <c r="H3" s="2">
-        <f t="shared" ref="H3:H10" si="0">100%-G3</f>
+        <f t="shared" ref="H3:H10" si="1">100%-G3</f>
         <v>0.37060504124233906</v>
       </c>
       <c r="I3" s="7">
-        <f t="shared" ref="I3:I10" si="1">E3/$D3</f>
+        <f t="shared" ref="I3:I10" si="2">E3/$D3</f>
         <v>1.0004758941318592</v>
       </c>
       <c r="J3" s="7">
-        <f t="shared" ref="J3:J10" si="2">F3/$D3</f>
+        <f t="shared" ref="J3:J10" si="3">F3/$D3</f>
         <v>1.0087491305780283</v>
       </c>
     </row>
@@ -11166,19 +11175,19 @@
         <v>3.7987000000000002</v>
       </c>
       <c r="G4" s="2">
-        <f>D4/C4</f>
+        <f t="shared" si="0"/>
         <v>0.44050965393299846</v>
       </c>
       <c r="H4" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.55949034606700154</v>
       </c>
       <c r="I4" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.99924159213347985</v>
       </c>
       <c r="J4" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.9934358491552906</v>
       </c>
     </row>
@@ -11203,19 +11212,19 @@
         <v>5.7523</v>
       </c>
       <c r="G5" s="2">
-        <f>D5/C5</f>
+        <f t="shared" si="0"/>
         <v>0.33067600571402239</v>
       </c>
       <c r="H5" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.66932399428597766</v>
       </c>
       <c r="I5" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0040064102564101</v>
       </c>
       <c r="J5" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0020032051282051</v>
       </c>
     </row>
@@ -11240,19 +11249,19 @@
         <v>9.7428000000000008</v>
       </c>
       <c r="G6" s="2">
-        <f>D6/C6</f>
+        <f t="shared" si="0"/>
         <v>0.27552301737247126</v>
       </c>
       <c r="H6" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.7244769826275288</v>
       </c>
       <c r="I6" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0036481090460561</v>
       </c>
       <c r="J6" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0184182468170511</v>
       </c>
     </row>
@@ -11277,19 +11286,19 @@
         <v>17.050999999999998</v>
       </c>
       <c r="G7" s="2">
-        <f>D7/C7</f>
+        <f t="shared" si="0"/>
         <v>0.2462444126998756</v>
       </c>
       <c r="H7" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.75375558730012437</v>
       </c>
       <c r="I7" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.99777777777777776</v>
       </c>
       <c r="J7" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.99713450292397643</v>
       </c>
     </row>
@@ -11301,7 +11310,7 @@
         <v>64</v>
       </c>
       <c r="C8" s="5">
-        <f t="shared" ref="C8:C10" si="3">$C$2*B8</f>
+        <f t="shared" ref="C8:C10" si="4">$C$2*B8</f>
         <v>138.88640000000001</v>
       </c>
       <c r="D8" s="5">
@@ -11314,19 +11323,19 @@
         <v>31.85</v>
       </c>
       <c r="G8" s="2">
-        <f t="shared" ref="G8:G10" si="4">D8/C8</f>
+        <f t="shared" ref="G8:G10" si="5">D8/C8</f>
         <v>0.23066333348693607</v>
       </c>
       <c r="H8" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.76933666651306387</v>
       </c>
       <c r="I8" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0006867274316393</v>
       </c>
       <c r="J8" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.99419403171432141</v>
       </c>
     </row>
@@ -11338,7 +11347,7 @@
         <v>128</v>
       </c>
       <c r="C9" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>277.77280000000002</v>
       </c>
       <c r="D9" s="5">
@@ -11351,19 +11360,19 @@
         <v>60.707000000000001</v>
       </c>
       <c r="G9" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.21801990691673195</v>
       </c>
       <c r="H9" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.7819800930832681</v>
       </c>
       <c r="I9" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0031208718626157</v>
       </c>
       <c r="J9" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0024273447820342</v>
       </c>
     </row>
@@ -11375,7 +11384,7 @@
         <v>256</v>
       </c>
       <c r="C10" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>555.54560000000004</v>
       </c>
       <c r="D10" s="5">
@@ -11388,19 +11397,19 @@
         <v>119.15</v>
       </c>
       <c r="G10" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.21339382401732637</v>
       </c>
       <c r="H10" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.78660617598267368</v>
       </c>
       <c r="I10" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0011809363137916</v>
       </c>
       <c r="J10" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0050611556305358</v>
       </c>
     </row>
@@ -11413,6 +11422,131 @@
         <f>AVERAGE(J2:J10)</f>
         <v>1.0038037706992287</v>
       </c>
+    </row>
+    <row r="49" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B49" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B50" s="1">
+        <v>1</v>
+      </c>
+      <c r="C50" s="5">
+        <v>2.3586999999999998</v>
+      </c>
+      <c r="D50" s="5">
+        <v>0.37513000000000002</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B51" s="1">
+        <v>2</v>
+      </c>
+      <c r="C51" s="5">
+        <v>2.9386999999999999</v>
+      </c>
+      <c r="D51" s="5">
+        <v>0.66944000000000004</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B52" s="1">
+        <v>4</v>
+      </c>
+      <c r="C52" s="5">
+        <v>4.1111000000000004</v>
+      </c>
+      <c r="D52" s="5">
+        <v>1.6872</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B53" s="1">
+        <v>8</v>
+      </c>
+      <c r="C53" s="5">
+        <v>6.2384000000000004</v>
+      </c>
+      <c r="D53" s="5">
+        <v>3.4643999999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B54" s="1">
+        <v>16</v>
+      </c>
+      <c r="C54" s="5">
+        <v>10.553000000000001</v>
+      </c>
+      <c r="D54" s="5">
+        <v>6.9699</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B55" s="1">
+        <v>32</v>
+      </c>
+      <c r="C55" s="5">
+        <v>18.768999999999998</v>
+      </c>
+      <c r="D55" s="5">
+        <v>14.000999999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B56" s="1">
+        <v>64</v>
+      </c>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B57" s="1">
+        <v>128</v>
+      </c>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B58" s="1">
+        <v>256</v>
+      </c>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/assets/Benchmarks - BP vs BP+.xlsx
+++ b/docs/assets/Benchmarks - BP vs BP+.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pluto\Documents\Code\@forked\bulletproofs-plus\docs\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DA56977-E7EA-448B-8436-4535F412E3EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{493D7B25-3C75-4B7C-91BB-95E7A1899120}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23040" yWindow="0" windowWidth="16965" windowHeight="21420" activeTab="2" xr2:uid="{52051F7D-C720-4D8E-A714-206017C25F0C}"/>
+    <workbookView xWindow="21315" yWindow="0" windowWidth="21435" windowHeight="21420" activeTab="2" xr2:uid="{52051F7D-C720-4D8E-A714-206017C25F0C}"/>
   </bookViews>
   <sheets>
     <sheet name="Creation" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="45">
   <si>
     <t>Aggregated 64-bit rangeproof creation, size 1</t>
   </si>
@@ -157,10 +157,19 @@
     <t>Diff Med (%)</t>
   </si>
   <si>
-    <t xml:space="preserve"> BP+ mask only  ed_0 (ms)</t>
+    <t>No mask ed_0 (ms)</t>
   </si>
   <si>
-    <t xml:space="preserve"> BP+ no mask ed_0 (ms)</t>
+    <t>Mask only ed_0 (ms)</t>
+  </si>
+  <si>
+    <t>Linear mask only (ms)</t>
+  </si>
+  <si>
+    <t>Linear vs. mask only (%)</t>
+  </si>
+  <si>
+    <t>No mask vs. mask only (%)</t>
   </si>
 </sst>
 </file>
@@ -6004,6 +6013,1125 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.78660617598267368</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-74E8-4954-811C-334B003DF6BB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="635240656"/>
+        <c:axId val="635238576"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="580892224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="256"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-ZA"/>
+                  <a:t>Aggregation factor</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="580720416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="16"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="580720416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-ZA"/>
+                  <a:t>Time (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="580892224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="635238576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-ZA"/>
+                  <a:t>Proportional (%)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="635240656"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="635240656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="635238576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-ZA"/>
+              <a:t>Batched 64-bit BP+ mask recovery (1-256) ed_0</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>VerificationBatch!$C$49</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>No mask ed_0 (ms)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>VerificationBatch!$B$50:$B$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>VerificationBatch!$C$50:$C$58</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2.1036000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.589</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.5945</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.4581</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.3070000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16.538</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30.385000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>58.253999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>113.18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-74E8-4954-811C-334B003DF6BB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>VerificationBatch!$D$49</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mask only ed_0 (ms)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>VerificationBatch!$B$50:$B$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>VerificationBatch!$D$50:$D$58</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.21795</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.42652000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.89892000000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8664000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.7764000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.3070000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.27</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30.599</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>61.356000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-74E8-4954-811C-334B003DF6BB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>VerificationBatch!$E$49</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Linear mask only (ms)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>VerificationBatch!$B$50:$B$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>VerificationBatch!$E$50:$E$58</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.21795</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.43590000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.87180000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7436</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.4872000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.9744000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.9488</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>27.897600000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>55.795200000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-74E8-4954-811C-334B003DF6BB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="580892224"/>
+        <c:axId val="580720416"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>VerificationBatch!$F$49</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Linear vs. mask only (%)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="7030A0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>VerificationBatch!$B$50:$B$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>VerificationBatch!$F$50:$F$58</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0219919347275626</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.96983046322253363</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.93420488641234456</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.92341912932952019</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.7493714408509724</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.91347740667976429</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.91171606915258674</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.90936827694113043</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-74E8-4954-811C-334B003DF6BB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>VerificationBatch!$G$49</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>No mask vs. mask only (%)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>VerificationBatch!$B$50:$B$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>VerificationBatch!$G$50:$G$58</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.10360810039931545</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.16474314407106991</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2500820698289053</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.34195049559370477</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.40575910604921028</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5627645422662958</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.50255060062530854</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.52526865107975418</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.54210991341226367</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6708,6 +7836,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -9289,6 +10457,522 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9967,13 +11651,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>542926</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
@@ -10010,8 +11694,8 @@
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
       <xdr:row>46</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
@@ -10035,6 +11719,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DBC6D76-AABA-48C9-9AC4-63F62D511CD0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -11034,18 +12756,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA12C07F-9893-4951-9980-FCE20D0EB9F0}">
   <dimension ref="A1:J58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49:G58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="58" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" style="1" customWidth="1"/>
     <col min="8" max="8" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="12" style="1" customWidth="1"/>
     <col min="11" max="16384" width="9.140625" style="1"/>
@@ -11423,18 +13146,28 @@
         <v>1.0038037706992287</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C49" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D49" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D49" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="E49" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H49" s="4"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>6</v>
       </c>
@@ -11442,13 +13175,26 @@
         <v>1</v>
       </c>
       <c r="C50" s="5">
-        <v>2.3586999999999998</v>
+        <v>2.1036000000000001</v>
       </c>
       <c r="D50" s="5">
-        <v>0.37513000000000002</v>
-      </c>
+        <v>0.21795</v>
+      </c>
+      <c r="E50" s="5">
+        <f>$D$50*B50</f>
+        <v>0.21795</v>
+      </c>
+      <c r="F50" s="7">
+        <f>E50/D50</f>
+        <v>1</v>
+      </c>
+      <c r="G50" s="7">
+        <f>D50/C50</f>
+        <v>0.10360810039931545</v>
+      </c>
+      <c r="H50" s="2"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>7</v>
       </c>
@@ -11456,13 +13202,26 @@
         <v>2</v>
       </c>
       <c r="C51" s="5">
-        <v>2.9386999999999999</v>
+        <v>2.589</v>
       </c>
       <c r="D51" s="5">
-        <v>0.66944000000000004</v>
-      </c>
+        <v>0.42652000000000001</v>
+      </c>
+      <c r="E51" s="5">
+        <f t="shared" ref="E51:E58" si="6">$D$50*B51</f>
+        <v>0.43590000000000001</v>
+      </c>
+      <c r="F51" s="7">
+        <f t="shared" ref="F51:F58" si="7">E51/D51</f>
+        <v>1.0219919347275626</v>
+      </c>
+      <c r="G51" s="7">
+        <f t="shared" ref="G51:G58" si="8">D51/C51</f>
+        <v>0.16474314407106991</v>
+      </c>
+      <c r="H51" s="2"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>8</v>
       </c>
@@ -11470,13 +13229,26 @@
         <v>4</v>
       </c>
       <c r="C52" s="5">
-        <v>4.1111000000000004</v>
+        <v>3.5945</v>
       </c>
       <c r="D52" s="5">
-        <v>1.6872</v>
-      </c>
+        <v>0.89892000000000005</v>
+      </c>
+      <c r="E52" s="5">
+        <f t="shared" si="6"/>
+        <v>0.87180000000000002</v>
+      </c>
+      <c r="F52" s="7">
+        <f t="shared" si="7"/>
+        <v>0.96983046322253363</v>
+      </c>
+      <c r="G52" s="7">
+        <f t="shared" si="8"/>
+        <v>0.2500820698289053</v>
+      </c>
+      <c r="H52" s="2"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>9</v>
       </c>
@@ -11484,13 +13256,26 @@
         <v>8</v>
       </c>
       <c r="C53" s="5">
-        <v>6.2384000000000004</v>
+        <v>5.4581</v>
       </c>
       <c r="D53" s="5">
-        <v>3.4643999999999999</v>
-      </c>
+        <v>1.8664000000000001</v>
+      </c>
+      <c r="E53" s="5">
+        <f t="shared" si="6"/>
+        <v>1.7436</v>
+      </c>
+      <c r="F53" s="7">
+        <f t="shared" si="7"/>
+        <v>0.93420488641234456</v>
+      </c>
+      <c r="G53" s="7">
+        <f t="shared" si="8"/>
+        <v>0.34195049559370477</v>
+      </c>
+      <c r="H53" s="2"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>10</v>
       </c>
@@ -11498,13 +13283,26 @@
         <v>16</v>
       </c>
       <c r="C54" s="5">
-        <v>10.553000000000001</v>
+        <v>9.3070000000000004</v>
       </c>
       <c r="D54" s="5">
-        <v>6.9699</v>
-      </c>
+        <v>3.7764000000000002</v>
+      </c>
+      <c r="E54" s="5">
+        <f t="shared" si="6"/>
+        <v>3.4872000000000001</v>
+      </c>
+      <c r="F54" s="7">
+        <f t="shared" si="7"/>
+        <v>0.92341912932952019</v>
+      </c>
+      <c r="G54" s="7">
+        <f t="shared" si="8"/>
+        <v>0.40575910604921028</v>
+      </c>
+      <c r="H54" s="2"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>11</v>
       </c>
@@ -11512,41 +13310,105 @@
         <v>32</v>
       </c>
       <c r="C55" s="5">
-        <v>18.768999999999998</v>
+        <v>16.538</v>
       </c>
       <c r="D55" s="5">
-        <v>14.000999999999999</v>
-      </c>
+        <v>9.3070000000000004</v>
+      </c>
+      <c r="E55" s="5">
+        <f t="shared" si="6"/>
+        <v>6.9744000000000002</v>
+      </c>
+      <c r="F55" s="7">
+        <f t="shared" si="7"/>
+        <v>0.7493714408509724</v>
+      </c>
+      <c r="G55" s="7">
+        <f t="shared" si="8"/>
+        <v>0.5627645422662958</v>
+      </c>
+      <c r="H55" s="2"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B56" s="1">
         <v>64</v>
       </c>
-      <c r="C56" s="5"/>
-      <c r="D56" s="5"/>
+      <c r="C56" s="5">
+        <v>30.385000000000002</v>
+      </c>
+      <c r="D56" s="5">
+        <v>15.27</v>
+      </c>
+      <c r="E56" s="5">
+        <f t="shared" si="6"/>
+        <v>13.9488</v>
+      </c>
+      <c r="F56" s="7">
+        <f t="shared" si="7"/>
+        <v>0.91347740667976429</v>
+      </c>
+      <c r="G56" s="7">
+        <f t="shared" si="8"/>
+        <v>0.50255060062530854</v>
+      </c>
+      <c r="H56" s="2"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B57" s="1">
         <v>128</v>
       </c>
-      <c r="C57" s="5"/>
-      <c r="D57" s="5"/>
+      <c r="C57" s="5">
+        <v>58.253999999999998</v>
+      </c>
+      <c r="D57" s="5">
+        <v>30.599</v>
+      </c>
+      <c r="E57" s="5">
+        <f t="shared" si="6"/>
+        <v>27.897600000000001</v>
+      </c>
+      <c r="F57" s="7">
+        <f t="shared" si="7"/>
+        <v>0.91171606915258674</v>
+      </c>
+      <c r="G57" s="7">
+        <f t="shared" si="8"/>
+        <v>0.52526865107975418</v>
+      </c>
+      <c r="H57" s="2"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B58" s="1">
         <v>256</v>
       </c>
-      <c r="C58" s="5"/>
-      <c r="D58" s="5"/>
+      <c r="C58" s="5">
+        <v>113.18</v>
+      </c>
+      <c r="D58" s="5">
+        <v>61.356000000000002</v>
+      </c>
+      <c r="E58" s="5">
+        <f t="shared" si="6"/>
+        <v>55.795200000000001</v>
+      </c>
+      <c r="F58" s="7">
+        <f t="shared" si="7"/>
+        <v>0.90936827694113043</v>
+      </c>
+      <c r="G58" s="7">
+        <f t="shared" si="8"/>
+        <v>0.54210991341226367</v>
+      </c>
+      <c r="H58" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
